--- a/gitforwindows_install.xlsx
+++ b/gitforwindows_install.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15432" windowHeight="8844" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15432" windowHeight="8844"/>
   </bookViews>
   <sheets>
     <sheet name="インストール" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>Git for windowsをインストール</t>
     <phoneticPr fontId="1"/>
@@ -716,6 +716,16 @@
   </si>
   <si>
     <t>などいろいろあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートレポジトリのファイルやソースをローカルに持ってきて作業することもできます。</t>
+    <rPh sb="24" eb="25">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サギョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3279,7 +3289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="J264" sqref="J264"/>
     </sheetView>
   </sheetViews>
@@ -3449,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Y251"/>
+  <dimension ref="B3:Y252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="T248" sqref="T248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -3722,33 +3732,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" s="1" t="s">
-        <v>70</v>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B251" s="1" t="s">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" s="1" t="s">
         <v>74</v>
       </c>
     </row>
